--- a/Win32/Binaries/Table/towerbuff.xlsx
+++ b/Win32/Binaries/Table/towerbuff.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,18 +61,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keeptime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>keepfloor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续时间和持续层数，只能同时填一个；填哪个，哪个生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,9 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui/stage/deng1.png</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +94,71 @@
   </si>
   <si>
     <t>积分翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间去掉了，现在只有持续楼层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#challenge_icon_buff1.png</t>
+  </si>
+  <si>
+    <t>#challenge_icon_buff2.png</t>
+  </si>
+  <si>
+    <t>#challenge_icon_buff3.png</t>
+  </si>
+  <si>
+    <t>#challenge_icon_buff4.png</t>
+  </si>
+  <si>
+    <t>#challenge_buff_icon_jian.png</t>
+  </si>
+  <si>
+    <t>#challenge_buff_icon_dun.png</t>
+  </si>
+  <si>
+    <t>#challenge_buff_icon_clock.png</t>
+  </si>
+  <si>
+    <t>#challenge_buff_icon_score.png</t>
+  </si>
+  <si>
+    <t>持续楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在事件预览下方显示的buff图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家头像左右显示的buf图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此字段代表buff的值，随机buff和神秘驿站中的buff都读取此列
+神秘驿站中出售的buff值读取驿站表中的num字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力锁定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,8 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -461,25 +514,26 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -488,10 +542,10 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -499,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -527,14 +581,17 @@
       <c r="C3">
         <v>3000</v>
       </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -544,14 +601,17 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -561,14 +621,17 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -581,38 +644,48 @@
       <c r="C6">
         <v>20000</v>
       </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
+      <c r="G6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -625,11 +698,8 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>101</v>
       </c>
@@ -639,33 +709,24 @@
       <c r="C3">
         <v>3000</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>104</v>
       </c>
@@ -675,50 +736,197 @@
       <c r="C6">
         <v>20000</v>
       </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>